--- a/Code/Results/Cases/Case_2_124/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_124/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9865248513549424</v>
+        <v>1.022317612170957</v>
       </c>
       <c r="D2">
-        <v>1.007974116346524</v>
+        <v>1.027891340981427</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9961516389761628</v>
+        <v>1.033169181054141</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040394052697642</v>
+        <v>1.030868811031093</v>
       </c>
       <c r="J2">
-        <v>1.009116209912051</v>
+        <v>1.027504127111424</v>
       </c>
       <c r="K2">
-        <v>1.01932346575844</v>
+        <v>1.030709749231591</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.007664849230247</v>
+        <v>1.035972304702392</v>
       </c>
       <c r="N2">
-        <v>1.006648171625592</v>
+        <v>1.013166432372473</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9929849191088742</v>
+        <v>1.023580389629369</v>
       </c>
       <c r="D3">
-        <v>1.012911602345913</v>
+        <v>1.028854726943839</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.003155451474872</v>
+        <v>1.034606232269697</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042613514952863</v>
+        <v>1.031192233512502</v>
       </c>
       <c r="J3">
-        <v>1.013668666469171</v>
+        <v>1.028403274761367</v>
       </c>
       <c r="K3">
-        <v>1.023381899912588</v>
+        <v>1.03148053557865</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.013748116298065</v>
+        <v>1.037216603349391</v>
       </c>
       <c r="N3">
-        <v>1.008200142814905</v>
+        <v>1.013468901000798</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.997043227692803</v>
+        <v>1.024396200586253</v>
       </c>
       <c r="D4">
-        <v>1.016014062459428</v>
+        <v>1.029476698461201</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.007558516001046</v>
+        <v>1.035534940328097</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043991704195252</v>
+        <v>1.031399180480371</v>
       </c>
       <c r="J4">
-        <v>1.016522871615944</v>
+        <v>1.028983356342545</v>
       </c>
       <c r="K4">
-        <v>1.02592297877802</v>
+        <v>1.031977272631944</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.017566564397566</v>
+        <v>1.038020081683448</v>
       </c>
       <c r="N4">
-        <v>1.009172599405147</v>
+        <v>1.013663897200889</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9987216821805035</v>
+        <v>1.0247388629429</v>
       </c>
       <c r="D5">
-        <v>1.017297254794938</v>
+        <v>1.029737841705261</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.009380330255626</v>
+        <v>1.035925096817883</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044557773074831</v>
+        <v>1.031485624602773</v>
       </c>
       <c r="J5">
-        <v>1.017701907609809</v>
+        <v>1.029226812132671</v>
       </c>
       <c r="K5">
-        <v>1.026971823618784</v>
+        <v>1.032185621261896</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.019145051724285</v>
+        <v>1.03835746980496</v>
       </c>
       <c r="N5">
-        <v>1.009574163949779</v>
+        <v>1.013745701923837</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9990019215334347</v>
+        <v>1.02479637972696</v>
       </c>
       <c r="D6">
-        <v>1.017511501058228</v>
+        <v>1.029781669314242</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.00968455125218</v>
+        <v>1.035990589992313</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044652052566871</v>
+        <v>1.031500106358869</v>
       </c>
       <c r="J6">
-        <v>1.017898677811754</v>
+        <v>1.029267665444275</v>
       </c>
       <c r="K6">
-        <v>1.027146815746097</v>
+        <v>1.032220575855875</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.019408555055913</v>
+        <v>1.038414095776678</v>
       </c>
       <c r="N6">
-        <v>1.009641172573369</v>
+        <v>1.013759427257862</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.99706576206901</v>
+        <v>1.024400780448774</v>
       </c>
       <c r="D7">
-        <v>1.016031290053396</v>
+        <v>1.029480189177762</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.007582971997408</v>
+        <v>1.035540154681837</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043999319683056</v>
+        <v>1.031400337735732</v>
       </c>
       <c r="J7">
-        <v>1.016538706645704</v>
+        <v>1.028986611020103</v>
       </c>
       <c r="K7">
-        <v>1.025937068650421</v>
+        <v>1.031980058478269</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.017587759685489</v>
+        <v>1.038024591423072</v>
       </c>
       <c r="N7">
-        <v>1.00917799319903</v>
+        <v>1.01366499095297</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.988734218535841</v>
+        <v>1.022744643575323</v>
       </c>
       <c r="D8">
-        <v>1.009662554895313</v>
+        <v>1.028217213888345</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9985463095368532</v>
+        <v>1.033655082703521</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04115647593147</v>
+        <v>1.030978596127215</v>
       </c>
       <c r="J8">
-        <v>1.010674342009448</v>
+        <v>1.027808357659325</v>
       </c>
       <c r="K8">
-        <v>1.02071321233533</v>
+        <v>1.030970658366101</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.009746008056422</v>
+        <v>1.036393169068021</v>
       </c>
       <c r="N8">
-        <v>1.007179466029033</v>
+        <v>1.013268802990971</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.973046073018731</v>
+        <v>1.019816237852612</v>
       </c>
       <c r="D9">
-        <v>0.9976805727622503</v>
+        <v>1.025980828910236</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.981555403662921</v>
+        <v>1.030324217739091</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035675870672148</v>
+        <v>1.030217542103066</v>
       </c>
       <c r="J9">
-        <v>0.9995879135182988</v>
+        <v>1.025718763693928</v>
       </c>
       <c r="K9">
-        <v>1.010811393479782</v>
+        <v>1.029176440694046</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9949549922464522</v>
+        <v>1.033505422497093</v>
       </c>
       <c r="N9">
-        <v>1.003397145069984</v>
+        <v>1.012565101012125</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9617943248289968</v>
+        <v>1.01785691072253</v>
       </c>
       <c r="D10">
-        <v>0.9891014703943632</v>
+        <v>1.024482444196289</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9693851422203253</v>
+        <v>1.028097163381579</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031662670490886</v>
+        <v>1.029698065791922</v>
       </c>
       <c r="J10">
-        <v>0.9916102874871403</v>
+        <v>1.02431652801195</v>
       </c>
       <c r="K10">
-        <v>1.003670329307315</v>
+        <v>1.027969704745342</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9843300689940701</v>
+        <v>1.031571237540847</v>
       </c>
       <c r="N10">
-        <v>1.000673289825768</v>
+        <v>1.012092159550601</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9567039564097918</v>
+        <v>1.017006763784151</v>
       </c>
       <c r="D11">
-        <v>0.985225578136901</v>
+        <v>1.023831820860453</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9638826768687224</v>
+        <v>1.027131211053105</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029828575940628</v>
+        <v>1.029470237211614</v>
       </c>
       <c r="J11">
-        <v>0.9879958128963023</v>
+        <v>1.023707125627495</v>
       </c>
       <c r="K11">
-        <v>1.000431602556843</v>
+        <v>1.027444627910202</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9795194421994657</v>
+        <v>1.030731507103183</v>
       </c>
       <c r="N11">
-        <v>0.9994388288740496</v>
+        <v>1.011886453417033</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9547774184125783</v>
+        <v>1.01669071360931</v>
       </c>
       <c r="D12">
-        <v>0.9837596635029111</v>
+        <v>1.023589874755975</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9618006586918164</v>
+        <v>1.02677216277606</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029131753065812</v>
+        <v>1.029385175414259</v>
       </c>
       <c r="J12">
-        <v>0.9866271348520368</v>
+        <v>1.023480428330496</v>
       </c>
       <c r="K12">
-        <v>0.9992047600059204</v>
+        <v>1.0272492044352</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9776982089984093</v>
+        <v>1.030419255039934</v>
       </c>
       <c r="N12">
-        <v>0.9989713439450509</v>
+        <v>1.011809905602325</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9551923365358622</v>
+        <v>1.016758519650113</v>
       </c>
       <c r="D13">
-        <v>0.984075329790152</v>
+        <v>1.023641785542289</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9622490412389207</v>
+        <v>1.026849191297754</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029281946840855</v>
+        <v>1.029403441220402</v>
       </c>
       <c r="J13">
-        <v>0.9869219377237876</v>
+        <v>1.023529071032568</v>
       </c>
       <c r="K13">
-        <v>0.9994690320143053</v>
+        <v>1.027291140977036</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.978090473166171</v>
+        <v>1.030486249594023</v>
       </c>
       <c r="N13">
-        <v>0.9990720380541539</v>
+        <v>1.011826331697038</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9565454558360422</v>
+        <v>1.01698064447224</v>
       </c>
       <c r="D14">
-        <v>0.9851049530287758</v>
+        <v>1.023811827161742</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9637113749638729</v>
+        <v>1.027101537161205</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029771300469172</v>
+        <v>1.029463214883167</v>
       </c>
       <c r="J14">
-        <v>0.98788322273971</v>
+        <v>1.023688393677955</v>
       </c>
       <c r="K14">
-        <v>1.000330688865956</v>
+        <v>1.027428482048655</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9793696167631427</v>
+        <v>1.030705703195868</v>
       </c>
       <c r="N14">
-        <v>0.9994003732942821</v>
+        <v>1.011880128801868</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.957374325641506</v>
+        <v>1.017117467260714</v>
       </c>
       <c r="D15">
-        <v>0.9857357963215406</v>
+        <v>1.023916558793785</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9646072081142535</v>
+        <v>1.02725698237078</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030070711090185</v>
+        <v>1.029499985570167</v>
       </c>
       <c r="J15">
-        <v>0.9884719779688679</v>
+        <v>1.023786512699187</v>
       </c>
       <c r="K15">
-        <v>1.000858367745492</v>
+        <v>1.027513051098943</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9801530973796942</v>
+        <v>1.030840870731915</v>
       </c>
       <c r="N15">
-        <v>0.9996014633968846</v>
+        <v>1.011913256463842</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9621273129120684</v>
+        <v>1.017913294931304</v>
       </c>
       <c r="D16">
-        <v>0.9893551386157339</v>
+        <v>1.024525585451378</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9697451564413456</v>
+        <v>1.028161235687069</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031782273831484</v>
+        <v>1.029713124955578</v>
       </c>
       <c r="J16">
-        <v>0.9918466258964428</v>
+        <v>1.024356924835655</v>
       </c>
       <c r="K16">
-        <v>1.003882034708888</v>
+        <v>1.028004498328068</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9846446789622391</v>
+        <v>1.031626920500094</v>
       </c>
       <c r="N16">
-        <v>1.000754001193079</v>
+        <v>1.012105792110838</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9650483214170354</v>
+        <v>1.01841202543112</v>
       </c>
       <c r="D17">
-        <v>0.9915809684351103</v>
+        <v>1.024907124133014</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9729036266655241</v>
+        <v>1.028728010624464</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032829371643992</v>
+        <v>1.0298460462618</v>
       </c>
       <c r="J17">
-        <v>0.9939192193047919</v>
+        <v>1.024714130892126</v>
       </c>
       <c r="K17">
-        <v>1.005738241821611</v>
+        <v>1.028312084701121</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.9874040405199331</v>
+        <v>1.032119391410217</v>
       </c>
       <c r="N17">
-        <v>1.001461770308332</v>
+        <v>1.012226317600404</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.966731252539589</v>
+        <v>1.018702758468349</v>
       </c>
       <c r="D18">
-        <v>0.9928638647884577</v>
+        <v>1.025129494499088</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.97472369679111</v>
+        <v>1.02905844470888</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03343090922544</v>
+        <v>1.029923298096074</v>
       </c>
       <c r="J18">
-        <v>0.995112830517573</v>
+        <v>1.024922268714411</v>
       </c>
       <c r="K18">
-        <v>1.006806924731348</v>
+        <v>1.028491248591042</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.9889934779746399</v>
+        <v>1.032406427991508</v>
       </c>
       <c r="N18">
-        <v>1.001869342578821</v>
+        <v>1.012296529461377</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.967301636946753</v>
+        <v>1.018801862587002</v>
       </c>
       <c r="D19">
-        <v>0.993298746306386</v>
+        <v>1.025205287514431</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9753406169808075</v>
+        <v>1.029171087909319</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033634485426816</v>
+        <v>1.029949591715549</v>
       </c>
       <c r="J19">
-        <v>0.9955172845218393</v>
+        <v>1.024993202077335</v>
       </c>
       <c r="K19">
-        <v>1.007168992878117</v>
+        <v>1.028552297208772</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9895321136790108</v>
+        <v>1.032504264035086</v>
       </c>
       <c r="N19">
-        <v>1.002007441923697</v>
+        <v>1.012320454898654</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9647371009932013</v>
+        <v>1.018358533789585</v>
       </c>
       <c r="D20">
-        <v>0.991343764003495</v>
+        <v>1.02486620673725</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>0.9725670720807978</v>
+        <v>1.028667217238998</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032717988706617</v>
+        <v>1.029831813925514</v>
       </c>
       <c r="J20">
-        <v>0.9936984459278724</v>
+        <v>1.024675828270825</v>
       </c>
       <c r="K20">
-        <v>1.005540550001828</v>
+        <v>1.02827910906665</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9871100803358586</v>
+        <v>1.032066576056383</v>
       </c>
       <c r="N20">
-        <v>1.001386381877777</v>
+        <v>1.012213395531796</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9561480083427286</v>
+        <v>1.016915241684241</v>
       </c>
       <c r="D21">
-        <v>0.9848024964726043</v>
+        <v>1.023761761778095</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9632818352222545</v>
+        <v>1.027027234565264</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029627636878623</v>
+        <v>1.029445625081596</v>
       </c>
       <c r="J21">
-        <v>0.987600886496902</v>
+        <v>1.023641486494496</v>
       </c>
       <c r="K21">
-        <v>1.000077626031363</v>
+        <v>1.027388049222348</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9789939134666046</v>
+        <v>1.030641088979921</v>
       </c>
       <c r="N21">
-        <v>0.999303939781244</v>
+        <v>1.011864290753697</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9505391284093373</v>
+        <v>1.016006234770549</v>
       </c>
       <c r="D22">
-        <v>0.9805367521337597</v>
+        <v>1.023065757051517</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9572211737589199</v>
+        <v>1.025994659261596</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027593955051597</v>
+        <v>1.029200288752341</v>
       </c>
       <c r="J22">
-        <v>0.983614887000811</v>
+        <v>1.022989196602336</v>
       </c>
       <c r="K22">
-        <v>0.9965038978869636</v>
+        <v>1.02682556644975</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.973690544828259</v>
+        <v>1.029742865576927</v>
       </c>
       <c r="N22">
-        <v>0.9979424323933612</v>
+        <v>1.011643987573349</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C23">
-        <v>0.9535333592473059</v>
+        <v>1.016488265491374</v>
       </c>
       <c r="D23">
-        <v>0.9828133525737325</v>
+        <v>1.023434874740305</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636464</v>
       </c>
       <c r="F23">
-        <v>0.9604563306169464</v>
+        <v>1.02654218696172</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028681039041888</v>
+        <v>1.029330585988735</v>
       </c>
       <c r="J23">
-        <v>0.9857431219785893</v>
+        <v>1.023335174712747</v>
       </c>
       <c r="K23">
-        <v>0.9984122368398283</v>
+        <v>1.027123962404061</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887611</v>
       </c>
       <c r="M23">
-        <v>0.9765219910534405</v>
+        <v>1.030219218866317</v>
       </c>
       <c r="N23">
-        <v>0.9986693926453055</v>
+        <v>1.011760851394056</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9648777923008869</v>
+        <v>1.018382704878692</v>
       </c>
       <c r="D24">
-        <v>0.9914509938926996</v>
+        <v>1.024884696086747</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9727192150156562</v>
+        <v>1.028694687635071</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032768346264098</v>
+        <v>1.02983824576737</v>
       </c>
       <c r="J24">
-        <v>0.9937982510358907</v>
+        <v>1.02469313623899</v>
       </c>
       <c r="K24">
-        <v>1.005629921590579</v>
+        <v>1.028294010096493</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766441</v>
       </c>
       <c r="M24">
-        <v>0.9872429700466486</v>
+        <v>1.032090441700233</v>
       </c>
       <c r="N24">
-        <v>1.001420462860851</v>
+        <v>1.012219234732121</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9772323324767714</v>
+        <v>1.020574524134733</v>
       </c>
       <c r="D25">
-        <v>1.000875968626672</v>
+        <v>1.026560291378501</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607051</v>
       </c>
       <c r="F25">
-        <v>0.986086506952382</v>
+        <v>1.031186442751063</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037152687410387</v>
+        <v>1.030416420972698</v>
       </c>
       <c r="J25">
-        <v>1.002550987386612</v>
+        <v>1.02626057659954</v>
       </c>
       <c r="K25">
-        <v>1.013460701513006</v>
+        <v>1.029642144403767</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426416</v>
       </c>
       <c r="M25">
-        <v>0.9989047214755549</v>
+        <v>1.034253542073681</v>
       </c>
       <c r="N25">
-        <v>1.004408463833241</v>
+        <v>1.012747691158529</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_124/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_124/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022317612170957</v>
+        <v>0.9865248513549436</v>
       </c>
       <c r="D2">
-        <v>1.027891340981427</v>
+        <v>1.007974116346525</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.033169181054141</v>
+        <v>0.9961516389761635</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030868811031093</v>
+        <v>1.040394052697643</v>
       </c>
       <c r="J2">
-        <v>1.027504127111424</v>
+        <v>1.009116209912052</v>
       </c>
       <c r="K2">
-        <v>1.030709749231591</v>
+        <v>1.019323465758441</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.035972304702392</v>
+        <v>1.007664849230247</v>
       </c>
       <c r="N2">
-        <v>1.013166432372473</v>
+        <v>1.006648171625593</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023580389629369</v>
+        <v>0.9929849191088744</v>
       </c>
       <c r="D3">
-        <v>1.028854726943839</v>
+        <v>1.012911602345913</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.034606232269697</v>
+        <v>1.003155451474873</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031192233512502</v>
+        <v>1.042613514952863</v>
       </c>
       <c r="J3">
-        <v>1.028403274761367</v>
+        <v>1.013668666469172</v>
       </c>
       <c r="K3">
-        <v>1.03148053557865</v>
+        <v>1.023381899912589</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.037216603349391</v>
+        <v>1.013748116298066</v>
       </c>
       <c r="N3">
-        <v>1.013468901000798</v>
+        <v>1.008200142814905</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024396200586253</v>
+        <v>0.9970432276928033</v>
       </c>
       <c r="D4">
-        <v>1.029476698461201</v>
+        <v>1.016014062459428</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.035534940328097</v>
+        <v>1.007558516001047</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031399180480371</v>
+        <v>1.043991704195252</v>
       </c>
       <c r="J4">
-        <v>1.028983356342545</v>
+        <v>1.016522871615944</v>
       </c>
       <c r="K4">
-        <v>1.031977272631944</v>
+        <v>1.02592297877802</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.038020081683448</v>
+        <v>1.017566564397566</v>
       </c>
       <c r="N4">
-        <v>1.013663897200889</v>
+        <v>1.009172599405147</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0247388629429</v>
+        <v>0.9987216821805039</v>
       </c>
       <c r="D5">
-        <v>1.029737841705261</v>
+        <v>1.017297254794938</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.035925096817883</v>
+        <v>1.009380330255627</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031485624602773</v>
+        <v>1.044557773074831</v>
       </c>
       <c r="J5">
-        <v>1.029226812132671</v>
+        <v>1.017701907609809</v>
       </c>
       <c r="K5">
-        <v>1.032185621261896</v>
+        <v>1.026971823618784</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.03835746980496</v>
+        <v>1.019145051724285</v>
       </c>
       <c r="N5">
-        <v>1.013745701923837</v>
+        <v>1.009574163949779</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02479637972696</v>
+        <v>0.9990019215334334</v>
       </c>
       <c r="D6">
-        <v>1.029781669314242</v>
+        <v>1.017511501058227</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.035990589992313</v>
+        <v>1.00968455125218</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031500106358869</v>
+        <v>1.044652052566871</v>
       </c>
       <c r="J6">
-        <v>1.029267665444275</v>
+        <v>1.017898677811753</v>
       </c>
       <c r="K6">
-        <v>1.032220575855875</v>
+        <v>1.027146815746096</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.038414095776678</v>
+        <v>1.019408555055912</v>
       </c>
       <c r="N6">
-        <v>1.013759427257862</v>
+        <v>1.009641172573368</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024400780448774</v>
+        <v>0.9970657620690089</v>
       </c>
       <c r="D7">
-        <v>1.029480189177762</v>
+        <v>1.016031290053395</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.035540154681837</v>
+        <v>1.007582971997407</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031400337735732</v>
+        <v>1.043999319683056</v>
       </c>
       <c r="J7">
-        <v>1.028986611020103</v>
+        <v>1.016538706645703</v>
       </c>
       <c r="K7">
-        <v>1.031980058478269</v>
+        <v>1.025937068650421</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.038024591423072</v>
+        <v>1.017587759685488</v>
       </c>
       <c r="N7">
-        <v>1.01366499095297</v>
+        <v>1.00917799319903</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022744643575323</v>
+        <v>0.9887342185358421</v>
       </c>
       <c r="D8">
-        <v>1.028217213888345</v>
+        <v>1.009662554895314</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.033655082703521</v>
+        <v>0.998546309536854</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030978596127215</v>
+        <v>1.04115647593147</v>
       </c>
       <c r="J8">
-        <v>1.027808357659325</v>
+        <v>1.010674342009449</v>
       </c>
       <c r="K8">
-        <v>1.030970658366101</v>
+        <v>1.020713212335331</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.036393169068021</v>
+        <v>1.009746008056423</v>
       </c>
       <c r="N8">
-        <v>1.013268802990971</v>
+        <v>1.007179466029033</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019816237852612</v>
+        <v>0.9730460730187315</v>
       </c>
       <c r="D9">
-        <v>1.025980828910236</v>
+        <v>0.9976805727622504</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.030324217739091</v>
+        <v>0.9815554036629214</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030217542103066</v>
+        <v>1.035675870672149</v>
       </c>
       <c r="J9">
-        <v>1.025718763693928</v>
+        <v>0.9995879135182991</v>
       </c>
       <c r="K9">
-        <v>1.029176440694046</v>
+        <v>1.010811393479782</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.033505422497093</v>
+        <v>0.9949549922464527</v>
       </c>
       <c r="N9">
-        <v>1.012565101012125</v>
+        <v>1.003397145069985</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01785691072253</v>
+        <v>0.9617943248289972</v>
       </c>
       <c r="D10">
-        <v>1.024482444196289</v>
+        <v>0.9891014703943639</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.028097163381579</v>
+        <v>0.9693851422203261</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029698065791922</v>
+        <v>1.031662670490886</v>
       </c>
       <c r="J10">
-        <v>1.02431652801195</v>
+        <v>0.991610287487141</v>
       </c>
       <c r="K10">
-        <v>1.027969704745342</v>
+        <v>1.003670329307315</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.031571237540847</v>
+        <v>0.9843300689940706</v>
       </c>
       <c r="N10">
-        <v>1.012092159550601</v>
+        <v>1.000673289825768</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017006763784151</v>
+        <v>0.9567039564097899</v>
       </c>
       <c r="D11">
-        <v>1.023831820860453</v>
+        <v>0.9852255781368991</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.027131211053105</v>
+        <v>0.9638826768687206</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029470237211614</v>
+        <v>1.029828575940626</v>
       </c>
       <c r="J11">
-        <v>1.023707125627495</v>
+        <v>0.9879958128963006</v>
       </c>
       <c r="K11">
-        <v>1.027444627910202</v>
+        <v>1.000431602556841</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.030731507103183</v>
+        <v>0.9795194421994641</v>
       </c>
       <c r="N11">
-        <v>1.011886453417033</v>
+        <v>0.999438828874049</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01669071360931</v>
+        <v>0.9547774184125776</v>
       </c>
       <c r="D12">
-        <v>1.023589874755975</v>
+        <v>0.9837596635029104</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.02677216277606</v>
+        <v>0.9618006586918155</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029385175414259</v>
+        <v>1.029131753065812</v>
       </c>
       <c r="J12">
-        <v>1.023480428330496</v>
+        <v>0.9866271348520362</v>
       </c>
       <c r="K12">
-        <v>1.0272492044352</v>
+        <v>0.9992047600059197</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.030419255039934</v>
+        <v>0.9776982089984085</v>
       </c>
       <c r="N12">
-        <v>1.011809905602325</v>
+        <v>0.9989713439450507</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016758519650113</v>
+        <v>0.9551923365358608</v>
       </c>
       <c r="D13">
-        <v>1.023641785542289</v>
+        <v>0.9840753297901507</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.026849191297754</v>
+        <v>0.9622490412389201</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029403441220402</v>
+        <v>1.029281946840854</v>
       </c>
       <c r="J13">
-        <v>1.023529071032568</v>
+        <v>0.9869219377237862</v>
       </c>
       <c r="K13">
-        <v>1.027291140977036</v>
+        <v>0.9994690320143038</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.030486249594023</v>
+        <v>0.9780904731661704</v>
       </c>
       <c r="N13">
-        <v>1.011826331697038</v>
+        <v>0.9990720380541533</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01698064447224</v>
+        <v>0.9565454558360428</v>
       </c>
       <c r="D14">
-        <v>1.023811827161742</v>
+        <v>0.985104953028776</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.027101537161205</v>
+        <v>0.9637113749638737</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029463214883167</v>
+        <v>1.029771300469172</v>
       </c>
       <c r="J14">
-        <v>1.023688393677955</v>
+        <v>0.9878832227397103</v>
       </c>
       <c r="K14">
-        <v>1.027428482048655</v>
+        <v>1.000330688865956</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.030705703195868</v>
+        <v>0.9793696167631435</v>
       </c>
       <c r="N14">
-        <v>1.011880128801868</v>
+        <v>0.9994003732942823</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017117467260714</v>
+        <v>0.9573743256415064</v>
       </c>
       <c r="D15">
-        <v>1.023916558793785</v>
+        <v>0.9857357963215406</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.02725698237078</v>
+        <v>0.9646072081142534</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029499985570167</v>
+        <v>1.030070711090185</v>
       </c>
       <c r="J15">
-        <v>1.023786512699187</v>
+        <v>0.9884719779688682</v>
       </c>
       <c r="K15">
-        <v>1.027513051098943</v>
+        <v>1.000858367745493</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.030840870731915</v>
+        <v>0.9801530973796944</v>
       </c>
       <c r="N15">
-        <v>1.011913256463842</v>
+        <v>0.9996014633968847</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017913294931304</v>
+        <v>0.9621273129120692</v>
       </c>
       <c r="D16">
-        <v>1.024525585451378</v>
+        <v>0.9893551386157348</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.028161235687069</v>
+        <v>0.9697451564413462</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029713124955578</v>
+        <v>1.031782273831485</v>
       </c>
       <c r="J16">
-        <v>1.024356924835655</v>
+        <v>0.9918466258964437</v>
       </c>
       <c r="K16">
-        <v>1.028004498328068</v>
+        <v>1.003882034708889</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.031626920500094</v>
+        <v>0.9846446789622398</v>
       </c>
       <c r="N16">
-        <v>1.012105792110838</v>
+        <v>1.000754001193079</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01841202543112</v>
+        <v>0.9650483214170352</v>
       </c>
       <c r="D17">
-        <v>1.024907124133014</v>
+        <v>0.99158096843511</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.028728010624464</v>
+        <v>0.9729036266655239</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0298460462618</v>
+        <v>1.032829371643992</v>
       </c>
       <c r="J17">
-        <v>1.024714130892126</v>
+        <v>0.9939192193047918</v>
       </c>
       <c r="K17">
-        <v>1.028312084701121</v>
+        <v>1.005738241821611</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.032119391410217</v>
+        <v>0.987404040519933</v>
       </c>
       <c r="N17">
-        <v>1.012226317600404</v>
+        <v>1.001461770308332</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018702758468349</v>
+        <v>0.9667312525395891</v>
       </c>
       <c r="D18">
-        <v>1.025129494499088</v>
+        <v>0.9928638647884578</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.02905844470888</v>
+        <v>0.9747236967911102</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029923298096074</v>
+        <v>1.033430909225439</v>
       </c>
       <c r="J18">
-        <v>1.024922268714411</v>
+        <v>0.9951128305175732</v>
       </c>
       <c r="K18">
-        <v>1.028491248591042</v>
+        <v>1.006806924731348</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.032406427991508</v>
+        <v>0.98899347797464</v>
       </c>
       <c r="N18">
-        <v>1.012296529461377</v>
+        <v>1.001869342578821</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018801862587002</v>
+        <v>0.967301636946753</v>
       </c>
       <c r="D19">
-        <v>1.025205287514431</v>
+        <v>0.9932987463063864</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.029171087909319</v>
+        <v>0.9753406169808075</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029949591715549</v>
+        <v>1.033634485426816</v>
       </c>
       <c r="J19">
-        <v>1.024993202077335</v>
+        <v>0.9955172845218393</v>
       </c>
       <c r="K19">
-        <v>1.028552297208772</v>
+        <v>1.007168992878117</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.032504264035086</v>
+        <v>0.9895321136790111</v>
       </c>
       <c r="N19">
-        <v>1.012320454898654</v>
+        <v>1.002007441923697</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018358533789585</v>
+        <v>0.9647371009932002</v>
       </c>
       <c r="D20">
-        <v>1.02486620673725</v>
+        <v>0.9913437640034939</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.028667217238998</v>
+        <v>0.972567072080797</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029831813925514</v>
+        <v>1.032717988706617</v>
       </c>
       <c r="J20">
-        <v>1.024675828270825</v>
+        <v>0.9936984459278713</v>
       </c>
       <c r="K20">
-        <v>1.02827910906665</v>
+        <v>1.005540550001827</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.032066576056383</v>
+        <v>0.9871100803358575</v>
       </c>
       <c r="N20">
-        <v>1.012213395531796</v>
+        <v>1.001386381877777</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016915241684241</v>
+        <v>0.9561480083427293</v>
       </c>
       <c r="D21">
-        <v>1.023761761778095</v>
+        <v>0.9848024964726045</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.027027234565264</v>
+        <v>0.9632818352222552</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029445625081596</v>
+        <v>1.029627636878623</v>
       </c>
       <c r="J21">
-        <v>1.023641486494496</v>
+        <v>0.9876008864969024</v>
       </c>
       <c r="K21">
-        <v>1.027388049222348</v>
+        <v>1.000077626031364</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.030641088979921</v>
+        <v>0.9789939134666052</v>
       </c>
       <c r="N21">
-        <v>1.011864290753697</v>
+        <v>0.999303939781244</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016006234770549</v>
+        <v>0.9505391284093374</v>
       </c>
       <c r="D22">
-        <v>1.023065757051517</v>
+        <v>0.98053675213376</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.025994659261596</v>
+        <v>0.9572211737589204</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029200288752341</v>
+        <v>1.027593955051598</v>
       </c>
       <c r="J22">
-        <v>1.022989196602336</v>
+        <v>0.9836148870008113</v>
       </c>
       <c r="K22">
-        <v>1.02682556644975</v>
+        <v>0.9965038978869638</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.029742865576927</v>
+        <v>0.9736905448282595</v>
       </c>
       <c r="N22">
-        <v>1.011643987573349</v>
+        <v>0.9979424323933613</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016488265491374</v>
+        <v>0.9535333592473046</v>
       </c>
       <c r="D23">
-        <v>1.023434874740305</v>
+        <v>0.9828133525737311</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636464</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.02654218696172</v>
+        <v>0.9604563306169451</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029330585988735</v>
+        <v>1.028681039041888</v>
       </c>
       <c r="J23">
-        <v>1.023335174712747</v>
+        <v>0.9857431219785879</v>
       </c>
       <c r="K23">
-        <v>1.027123962404061</v>
+        <v>0.9984122368398272</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887611</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.030219218866317</v>
+        <v>0.9765219910534394</v>
       </c>
       <c r="N23">
-        <v>1.011760851394056</v>
+        <v>0.998669392645305</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018382704878692</v>
+        <v>0.9648777923008883</v>
       </c>
       <c r="D24">
-        <v>1.024884696086747</v>
+        <v>0.9914509938927009</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.028694687635071</v>
+        <v>0.9727192150156571</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02983824576737</v>
+        <v>1.032768346264099</v>
       </c>
       <c r="J24">
-        <v>1.02469313623899</v>
+        <v>0.993798251035892</v>
       </c>
       <c r="K24">
-        <v>1.028294010096493</v>
+        <v>1.00562992159058</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766441</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.032090441700233</v>
+        <v>0.9872429700466496</v>
       </c>
       <c r="N24">
-        <v>1.012219234732121</v>
+        <v>1.001420462860852</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020574524134733</v>
+        <v>0.9772323324767708</v>
       </c>
       <c r="D25">
-        <v>1.026560291378501</v>
+        <v>1.000875968626671</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607051</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.031186442751063</v>
+        <v>0.9860865069523813</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030416420972698</v>
+        <v>1.037152687410387</v>
       </c>
       <c r="J25">
-        <v>1.02626057659954</v>
+        <v>1.002550987386612</v>
       </c>
       <c r="K25">
-        <v>1.029642144403767</v>
+        <v>1.013460701513005</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426416</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.034253542073681</v>
+        <v>0.9989047214755544</v>
       </c>
       <c r="N25">
-        <v>1.012747691158529</v>
+        <v>1.004408463833241</v>
       </c>
     </row>
   </sheetData>
